--- a/data/dur_pri.xlsx
+++ b/data/dur_pri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c2bddebcd58e8e8/UNI/2020 S2/STAT3199/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time-use-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615EEE76-EA54-44BB-9C22-04340C58AD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01EA804-700D-488C-A4A7-9FA229CB417E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9BBB599-D75F-4FA2-B654-984354C8A532}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Tuesday</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>During</t>
   </si>
 </sst>
 </file>
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4247497-5CF6-4662-B8E9-763C50FF9193}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="AA2" sqref="AA2:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +509,7 @@
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -582,8 +588,11 @@
       <c r="Z1" t="s">
         <v>35</v>
       </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -624,7 +633,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -662,8 +671,11 @@
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -683,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.8333333333333335</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="H3">
-        <v>8.1666666666666679</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="I3">
         <v>0.33333333333333331</v>
@@ -713,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.833333333333333</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="R3">
-        <v>7.8333333333333339</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -742,8 +754,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -766,10 +781,10 @@
         <v>1.5</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -793,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -822,8 +837,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
+      <c r="AA4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -843,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -855,13 +873,13 @@
         <v>5.5</v>
       </c>
       <c r="K5">
-        <v>4.1666666666666661</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.166666666666666</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="N5">
         <v>2.5</v>
@@ -873,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.66666666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -902,8 +920,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
+      <c r="AA5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -923,16 +944,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.833333333333333</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.166666666666668</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -982,8 +1003,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1003,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.833333333333333</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1062,8 +1086,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
+      <c r="AA7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1086,7 +1113,7 @@
         <v>3.5</v>
       </c>
       <c r="H8">
-        <v>11.5</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="I8">
         <v>0.5</v>
@@ -1142,8 +1169,11 @@
       <c r="Z8">
         <v>0</v>
       </c>
+      <c r="AA8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1151,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1.8333333333333335</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1166,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="I9">
         <v>0.5</v>
@@ -1222,8 +1252,11 @@
       <c r="Z9">
         <v>0</v>
       </c>
+      <c r="AA9" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1302,8 +1335,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AA10" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1323,7 +1359,7 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.8333333333333335</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="H11">
         <v>8.5</v>
@@ -1382,8 +1418,11 @@
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AA11" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1460,10 +1499,13 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -1542,8 +1584,11 @@
       <c r="Z13">
         <v>0</v>
       </c>
+      <c r="AA13" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1566,7 +1611,7 @@
         <v>2.5</v>
       </c>
       <c r="H14">
-        <v>10.666666666666666</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="I14">
         <v>0.66666666666666663</v>
@@ -1581,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.3333333333333335</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1622,8 +1667,11 @@
       <c r="Z14">
         <v>0</v>
       </c>
+      <c r="AA14" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1646,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>0.16666666666666666</v>
@@ -1661,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.8333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="N15">
         <v>6</v>
@@ -1673,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.8333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1702,8 +1750,11 @@
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1726,7 +1777,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="H16">
-        <v>3.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1735,7 +1786,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K16">
-        <v>1.8333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1781,6 +1832,9 @@
       </c>
       <c r="Z16">
         <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
